--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838879FF-FE2A-694C-AC7B-7222BD3D65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65969DF-CA38-7D48-A20D-3324FF496E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="110">
   <si>
     <t>BAT3</t>
   </si>
@@ -338,6 +338,33 @@
   <si>
     <t>每第一次升段之后赠送盾*1</t>
   </si>
+  <si>
+    <t>目前只配纯活跃向的任务</t>
+  </si>
+  <si>
+    <t>活跃条件-数据</t>
+  </si>
+  <si>
+    <t>输了不扣</t>
+  </si>
+  <si>
+    <t>任务3 「buff」</t>
+  </si>
+  <si>
+    <t>任务2 「双倍卡 or 盾 」</t>
+  </si>
+  <si>
+    <t>小活</t>
+  </si>
+  <si>
+    <t>中活</t>
+  </si>
+  <si>
+    <t>高活</t>
+  </si>
+  <si>
+    <t>任务1[ 奖励]</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +401,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +417,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,11 +469,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
   <dimension ref="A1:BC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -761,40 +803,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
     </row>
     <row r="2" spans="1:55">
       <c r="A2" s="1"/>
@@ -946,25 +988,25 @@
       <c r="D5" s="6">
         <v>0.5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.38938842346886499</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.23240303306998999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.121077935222672</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>5.4166666666666599E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>1.694915E-2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>0</v>
       </c>
       <c r="L5" s="1"/>
@@ -987,8 +1029,10 @@
         <v>8</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="1"/>
+      <c r="V5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" s="12"/>
       <c r="X5" t="s">
         <v>72</v>
       </c>
@@ -1091,28 +1135,28 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.61061157653113396</v>
       </c>
       <c r="E6" s="6">
         <v>0.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0.31754829433454601</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.19900250614128601</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.110471929263875</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>6.6095471236230094E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6" s="1"/>
@@ -1135,10 +1179,14 @@
         <v>10</v>
       </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="V6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" t="s">
+        <v>106</v>
+      </c>
       <c r="X6" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="2">
         <v>3</v>
@@ -1239,25 +1287,25 @@
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.76759696693000901</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.68246330094385499</v>
       </c>
       <c r="F7" s="6">
         <v>0.5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.34141425942693499</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.208795117211068</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.13136309825807499</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.110878661087866</v>
       </c>
       <c r="K7" s="4">
@@ -1284,9 +1332,11 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="X7" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Y7" s="2">
         <v>3</v>
@@ -1428,9 +1478,11 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="X8" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="Y8" s="2">
         <v>5</v>
@@ -1820,22 +1872,99 @@
       <c r="X12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AY12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BC12" s="2"/>
+      <c r="Y12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ12">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL12">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ12">
+        <v>3</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>3</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:55">
       <c r="A13" s="1"/>
@@ -1870,22 +1999,99 @@
       <c r="X13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BC13" s="2"/>
+      <c r="Y13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ13">
+        <v>3</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:55">
       <c r="A14" s="1"/>
@@ -1924,22 +2130,99 @@
       <c r="X14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BC14" s="2"/>
+      <c r="Y14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF14">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH14">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ14">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL14">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN14">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP14">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR14">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT14">
+        <v>5</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX14">
+        <v>5</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ14">
+        <v>5</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:55">
       <c r="A15" s="1"/>
@@ -2058,7 +2341,9 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="X17" t="s">
         <v>82</v>
       </c>
@@ -2164,14 +2449,30 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="D18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1000</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="2" t="s">
@@ -2193,23 +2494,98 @@
         <v>67</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BC18" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19" spans="1:55">
       <c r="A19" s="1"/>
@@ -2219,14 +2595,30 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="D19" s="1">
+        <v>900</v>
+      </c>
+      <c r="E19" s="1">
+        <v>900</v>
+      </c>
+      <c r="F19" s="1">
+        <v>900</v>
+      </c>
+      <c r="G19" s="1">
+        <v>900</v>
+      </c>
+      <c r="H19" s="1">
+        <v>900</v>
+      </c>
+      <c r="I19" s="1">
+        <v>900</v>
+      </c>
+      <c r="J19" s="1">
+        <v>900</v>
+      </c>
+      <c r="K19" s="1">
+        <v>900</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="2" t="s">
@@ -2248,23 +2640,98 @@
         <v>68</v>
       </c>
       <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BC19" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20" spans="1:55">
       <c r="A20" s="1"/>
@@ -2274,14 +2741,30 @@
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="D20" s="1">
+        <v>800</v>
+      </c>
+      <c r="E20" s="1">
+        <v>800</v>
+      </c>
+      <c r="F20" s="1">
+        <v>800</v>
+      </c>
+      <c r="G20" s="1">
+        <v>800</v>
+      </c>
+      <c r="H20" s="1">
+        <v>800</v>
+      </c>
+      <c r="I20" s="1">
+        <v>800</v>
+      </c>
+      <c r="J20" s="1">
+        <v>800</v>
+      </c>
+      <c r="K20" s="1">
+        <v>800</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="2" t="s">
@@ -2305,21 +2788,96 @@
       <c r="Y20" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AY20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BC20" s="2"/>
+      <c r="Z20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="1:55">
       <c r="A21" s="1"/>
@@ -2329,14 +2887,30 @@
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="D21" s="1">
+        <v>700</v>
+      </c>
+      <c r="E21" s="1">
+        <v>700</v>
+      </c>
+      <c r="F21" s="1">
+        <v>700</v>
+      </c>
+      <c r="G21" s="1">
+        <v>700</v>
+      </c>
+      <c r="H21" s="1">
+        <v>700</v>
+      </c>
+      <c r="I21" s="1">
+        <v>700</v>
+      </c>
+      <c r="J21" s="1">
+        <v>700</v>
+      </c>
+      <c r="K21" s="1">
+        <v>700</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="2" t="s">
@@ -2366,14 +2940,30 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="D22" s="1">
+        <v>600</v>
+      </c>
+      <c r="E22" s="1">
+        <v>600</v>
+      </c>
+      <c r="F22" s="1">
+        <v>600</v>
+      </c>
+      <c r="G22" s="1">
+        <v>600</v>
+      </c>
+      <c r="H22" s="1">
+        <v>600</v>
+      </c>
+      <c r="I22" s="1">
+        <v>600</v>
+      </c>
+      <c r="J22" s="1">
+        <v>600</v>
+      </c>
+      <c r="K22" s="1">
+        <v>600</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="2" t="s">
@@ -2407,14 +2997,30 @@
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="D23" s="1">
+        <v>500</v>
+      </c>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1">
+        <v>500</v>
+      </c>
+      <c r="G23" s="1">
+        <v>500</v>
+      </c>
+      <c r="H23" s="1">
+        <v>500</v>
+      </c>
+      <c r="I23" s="1">
+        <v>500</v>
+      </c>
+      <c r="J23" s="1">
+        <v>500</v>
+      </c>
+      <c r="K23" s="1">
+        <v>500</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2" t="s">
@@ -2539,14 +3145,30 @@
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="D24" s="1">
+        <v>400</v>
+      </c>
+      <c r="E24" s="1">
+        <v>400</v>
+      </c>
+      <c r="F24" s="1">
+        <v>400</v>
+      </c>
+      <c r="G24" s="1">
+        <v>400</v>
+      </c>
+      <c r="H24" s="1">
+        <v>400</v>
+      </c>
+      <c r="I24" s="1">
+        <v>400</v>
+      </c>
+      <c r="J24" s="1">
+        <v>400</v>
+      </c>
+      <c r="K24" s="1">
+        <v>400</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2" t="s">
@@ -2592,14 +3214,30 @@
       <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="D25" s="1">
+        <v>300</v>
+      </c>
+      <c r="E25" s="1">
+        <v>300</v>
+      </c>
+      <c r="F25" s="1">
+        <v>300</v>
+      </c>
+      <c r="G25" s="1">
+        <v>300</v>
+      </c>
+      <c r="H25" s="1">
+        <v>300</v>
+      </c>
+      <c r="I25" s="1">
+        <v>300</v>
+      </c>
+      <c r="J25" s="1">
+        <v>300</v>
+      </c>
+      <c r="K25" s="1">
+        <v>300</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2" t="s">
@@ -2645,14 +3283,30 @@
       <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="D26" s="1">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>200</v>
+      </c>
+      <c r="G26" s="1">
+        <v>200</v>
+      </c>
+      <c r="H26" s="1">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1">
+        <v>200</v>
+      </c>
+      <c r="J26" s="1">
+        <v>200</v>
+      </c>
+      <c r="K26" s="1">
+        <v>200</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2" t="s">
@@ -2775,14 +3429,30 @@
       <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <v>100</v>
+      </c>
+      <c r="K27" s="1">
+        <v>100</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2" t="s">
@@ -2810,14 +3480,30 @@
       <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>100</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1">
+        <v>100</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2" t="s">
@@ -2846,14 +3532,30 @@
       <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1">
+        <v>100</v>
+      </c>
+      <c r="K29" s="1">
+        <v>100</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2" t="s">
@@ -2888,14 +3590,30 @@
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
+      <c r="K30" s="1">
+        <v>100</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="2" t="s">
@@ -3018,14 +3736,30 @@
       <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <v>100</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1">
+        <v>100</v>
+      </c>
+      <c r="K31" s="1">
+        <v>100</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2" t="s">
@@ -3047,23 +3781,98 @@
         <v>67</v>
       </c>
       <c r="Y31" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BC31" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BA31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="32" spans="1:55">
       <c r="A32" s="1"/>
@@ -3073,14 +3882,30 @@
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>100</v>
+      </c>
+      <c r="K32" s="1">
+        <v>100</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="2" t="s">
@@ -3102,23 +3927,98 @@
         <v>68</v>
       </c>
       <c r="Y32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AY32" s="2"/>
-      <c r="BA32" s="2"/>
-      <c r="BC32" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="33" spans="1:55">
       <c r="A33" s="1"/>
@@ -3128,14 +4028,30 @@
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>100</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>100</v>
+      </c>
+      <c r="K33" s="1">
+        <v>100</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3153,21 +4069,96 @@
       <c r="Y33" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BC33" s="2"/>
+      <c r="Z33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BA33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="34" spans="1:55">
       <c r="A34" s="1"/>
@@ -3177,14 +4168,30 @@
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>100</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1">
+        <v>100</v>
+      </c>
+      <c r="K34" s="1">
+        <v>100</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3207,14 +4214,30 @@
       <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>100</v>
+      </c>
+      <c r="H35" s="1">
+        <v>100</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>100</v>
+      </c>
+      <c r="K35" s="1">
+        <v>100</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3237,14 +4260,30 @@
       <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1">
+        <v>100</v>
+      </c>
+      <c r="I36" s="1">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1">
+        <v>100</v>
+      </c>
+      <c r="K36" s="1">
+        <v>100</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3268,14 +4307,30 @@
       <c r="C37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="D37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1">
+        <v>100</v>
+      </c>
+      <c r="I37" s="1">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1">
+        <v>100</v>
+      </c>
+      <c r="K37" s="1">
+        <v>100</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3299,14 +4354,30 @@
       <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1">
+        <v>100</v>
+      </c>
+      <c r="K38" s="1">
+        <v>100</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3330,14 +4401,30 @@
       <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="D39" s="1">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1">
+        <v>100</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
+        <v>100</v>
+      </c>
+      <c r="K39" s="1">
+        <v>100</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3361,14 +4448,30 @@
       <c r="C40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="D40" s="1">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1">
+        <v>100</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1">
+        <v>100</v>
+      </c>
+      <c r="J40" s="1">
+        <v>100</v>
+      </c>
+      <c r="K40" s="1">
+        <v>100</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3392,14 +4495,30 @@
       <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1">
+        <v>100</v>
+      </c>
+      <c r="I41" s="1">
+        <v>100</v>
+      </c>
+      <c r="J41" s="1">
+        <v>100</v>
+      </c>
+      <c r="K41" s="1">
+        <v>100</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3424,14 +4543,30 @@
       <c r="C42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1">
+        <v>100</v>
+      </c>
+      <c r="I42" s="1">
+        <v>100</v>
+      </c>
+      <c r="J42" s="1">
+        <v>100</v>
+      </c>
+      <c r="K42" s="1">
+        <v>100</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3456,14 +4591,30 @@
       <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1">
+        <v>100</v>
+      </c>
+      <c r="I43" s="1">
+        <v>100</v>
+      </c>
+      <c r="J43" s="1">
+        <v>100</v>
+      </c>
+      <c r="K43" s="1">
+        <v>100</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3488,14 +4639,30 @@
       <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1">
+        <v>100</v>
+      </c>
+      <c r="I44" s="1">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1">
+        <v>100</v>
+      </c>
+      <c r="K44" s="1">
+        <v>100</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3520,14 +4687,30 @@
       <c r="C45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="D45" s="1">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1">
+        <v>100</v>
+      </c>
+      <c r="I45" s="1">
+        <v>100</v>
+      </c>
+      <c r="J45" s="1">
+        <v>100</v>
+      </c>
+      <c r="K45" s="1">
+        <v>100</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2" t="s">
         <v>25</v>
@@ -3554,14 +4737,30 @@
       <c r="C46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1">
+        <v>100</v>
+      </c>
+      <c r="I46" s="1">
+        <v>100</v>
+      </c>
+      <c r="J46" s="1">
+        <v>100</v>
+      </c>
+      <c r="K46" s="1">
+        <v>100</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2" t="s">
         <v>26</v>
@@ -3588,14 +4787,30 @@
       <c r="C47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="D47" s="1">
+        <v>100</v>
+      </c>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="1">
+        <v>100</v>
+      </c>
+      <c r="K47" s="1">
+        <v>100</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3756,14 +4971,30 @@
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="2" t="s">
         <v>32</v>
@@ -3790,14 +5021,30 @@
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3822,14 +5069,30 @@
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1">
+        <v>4</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <v>4</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3854,14 +5117,30 @@
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>5</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="2" t="s">
         <v>36</v>
@@ -3888,14 +5167,30 @@
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1">
+        <v>6</v>
+      </c>
+      <c r="J56" s="1">
+        <v>6</v>
+      </c>
+      <c r="K56" s="1">
+        <v>6</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="2" t="s">
         <v>38</v>
@@ -3922,14 +5217,30 @@
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="D57" s="1">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7</v>
+      </c>
+      <c r="J57" s="1">
+        <v>7</v>
+      </c>
+      <c r="K57" s="1">
+        <v>7</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="2" t="s">
         <v>40</v>
@@ -3956,14 +5267,30 @@
       <c r="C58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="D58" s="1">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1">
+        <v>8</v>
+      </c>
+      <c r="K58" s="1">
+        <v>8</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3988,14 +5315,30 @@
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="D59" s="1">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1">
+        <v>9</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9</v>
+      </c>
+      <c r="I59" s="1">
+        <v>9</v>
+      </c>
+      <c r="J59" s="1">
+        <v>9</v>
+      </c>
+      <c r="K59" s="1">
+        <v>9</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="2" t="s">
         <v>43</v>
@@ -4022,14 +5365,30 @@
       <c r="C60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="D60" s="1">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10</v>
+      </c>
+      <c r="J60" s="1">
+        <v>10</v>
+      </c>
+      <c r="K60" s="1">
+        <v>10</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="2" t="s">
         <v>45</v>
@@ -4056,14 +5415,30 @@
       <c r="C61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="D61" s="1">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1">
+        <v>11</v>
+      </c>
+      <c r="I61" s="1">
+        <v>11</v>
+      </c>
+      <c r="J61" s="1">
+        <v>11</v>
+      </c>
+      <c r="K61" s="1">
+        <v>11</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -4088,14 +5463,30 @@
       <c r="C62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="D62" s="1">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1">
+        <v>12</v>
+      </c>
+      <c r="H62" s="1">
+        <v>12</v>
+      </c>
+      <c r="I62" s="1">
+        <v>12</v>
+      </c>
+      <c r="J62" s="1">
+        <v>12</v>
+      </c>
+      <c r="K62" s="1">
+        <v>12</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="2" t="s">
         <v>48</v>
@@ -4122,14 +5513,30 @@
       <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="D63" s="1">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1">
+        <v>13</v>
+      </c>
+      <c r="J63" s="1">
+        <v>13</v>
+      </c>
+      <c r="K63" s="1">
+        <v>13</v>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="2" t="s">
         <v>50</v>
@@ -4156,14 +5563,30 @@
       <c r="C64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="D64" s="1">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1">
+        <v>14</v>
+      </c>
+      <c r="J64" s="1">
+        <v>14</v>
+      </c>
+      <c r="K64" s="1">
+        <v>14</v>
+      </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4188,14 +5611,30 @@
       <c r="C65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="D65" s="1">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1">
+        <v>15</v>
+      </c>
+      <c r="I65" s="1">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1">
+        <v>15</v>
+      </c>
+      <c r="K65" s="1">
+        <v>15</v>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -4220,14 +5659,30 @@
       <c r="C66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="D66" s="1">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1">
+        <v>16</v>
+      </c>
+      <c r="F66" s="1">
+        <v>16</v>
+      </c>
+      <c r="G66" s="1">
+        <v>16</v>
+      </c>
+      <c r="H66" s="1">
+        <v>16</v>
+      </c>
+      <c r="I66" s="1">
+        <v>16</v>
+      </c>
+      <c r="J66" s="1">
+        <v>16</v>
+      </c>
+      <c r="K66" s="1">
+        <v>16</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="2" t="s">
         <v>89</v>
@@ -4254,14 +5709,30 @@
       <c r="C67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="D67" s="1">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1">
+        <v>17</v>
+      </c>
+      <c r="H67" s="1">
+        <v>17</v>
+      </c>
+      <c r="I67" s="1">
+        <v>17</v>
+      </c>
+      <c r="J67" s="1">
+        <v>17</v>
+      </c>
+      <c r="K67" s="1">
+        <v>17</v>
+      </c>
       <c r="L67" s="1"/>
       <c r="M67" s="2" t="s">
         <v>90</v>
@@ -4288,14 +5759,30 @@
       <c r="C68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="D68" s="1">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1">
+        <v>18</v>
+      </c>
+      <c r="F68" s="1">
+        <v>18</v>
+      </c>
+      <c r="G68" s="1">
+        <v>18</v>
+      </c>
+      <c r="H68" s="1">
+        <v>18</v>
+      </c>
+      <c r="I68" s="1">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1">
+        <v>18</v>
+      </c>
+      <c r="K68" s="1">
+        <v>18</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
         <v>99</v>
@@ -4322,14 +5809,30 @@
       <c r="C69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="D69" s="1">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1">
+        <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>19</v>
+      </c>
+      <c r="G69" s="1">
+        <v>19</v>
+      </c>
+      <c r="H69" s="1">
+        <v>19</v>
+      </c>
+      <c r="I69" s="1">
+        <v>19</v>
+      </c>
+      <c r="J69" s="1">
+        <v>19</v>
+      </c>
+      <c r="K69" s="1">
+        <v>19</v>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -4354,14 +5857,30 @@
       <c r="C70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="D70" s="1">
+        <v>20</v>
+      </c>
+      <c r="E70" s="1">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1">
+        <v>20</v>
+      </c>
+      <c r="G70" s="1">
+        <v>20</v>
+      </c>
+      <c r="H70" s="1">
+        <v>20</v>
+      </c>
+      <c r="I70" s="1">
+        <v>20</v>
+      </c>
+      <c r="J70" s="1">
+        <v>20</v>
+      </c>
+      <c r="K70" s="1">
+        <v>20</v>
+      </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4386,14 +5905,30 @@
       <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="D71" s="1">
+        <v>21</v>
+      </c>
+      <c r="E71" s="1">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1">
+        <v>21</v>
+      </c>
+      <c r="G71" s="1">
+        <v>21</v>
+      </c>
+      <c r="H71" s="1">
+        <v>21</v>
+      </c>
+      <c r="I71" s="1">
+        <v>21</v>
+      </c>
+      <c r="J71" s="1">
+        <v>21</v>
+      </c>
+      <c r="K71" s="1">
+        <v>21</v>
+      </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4418,14 +5953,30 @@
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="D72" s="1">
+        <v>22</v>
+      </c>
+      <c r="E72" s="1">
+        <v>22</v>
+      </c>
+      <c r="F72" s="1">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1">
+        <v>22</v>
+      </c>
+      <c r="H72" s="1">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1">
+        <v>22</v>
+      </c>
+      <c r="J72" s="1">
+        <v>22</v>
+      </c>
+      <c r="K72" s="1">
+        <v>22</v>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4450,14 +6001,30 @@
       <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="D73" s="1">
+        <v>23</v>
+      </c>
+      <c r="E73" s="1">
+        <v>23</v>
+      </c>
+      <c r="F73" s="1">
+        <v>23</v>
+      </c>
+      <c r="G73" s="1">
+        <v>23</v>
+      </c>
+      <c r="H73" s="1">
+        <v>23</v>
+      </c>
+      <c r="I73" s="1">
+        <v>23</v>
+      </c>
+      <c r="J73" s="1">
+        <v>23</v>
+      </c>
+      <c r="K73" s="1">
+        <v>23</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4482,14 +6049,30 @@
       <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="D74" s="1">
+        <v>24</v>
+      </c>
+      <c r="E74" s="1">
+        <v>24</v>
+      </c>
+      <c r="F74" s="1">
+        <v>24</v>
+      </c>
+      <c r="G74" s="1">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1">
+        <v>24</v>
+      </c>
+      <c r="I74" s="1">
+        <v>24</v>
+      </c>
+      <c r="J74" s="1">
+        <v>24</v>
+      </c>
+      <c r="K74" s="1">
+        <v>24</v>
+      </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -4514,14 +6097,30 @@
       <c r="C75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="D75" s="1">
+        <v>25</v>
+      </c>
+      <c r="E75" s="1">
+        <v>25</v>
+      </c>
+      <c r="F75" s="1">
+        <v>25</v>
+      </c>
+      <c r="G75" s="1">
+        <v>25</v>
+      </c>
+      <c r="H75" s="1">
+        <v>25</v>
+      </c>
+      <c r="I75" s="1">
+        <v>25</v>
+      </c>
+      <c r="J75" s="1">
+        <v>25</v>
+      </c>
+      <c r="K75" s="1">
+        <v>25</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4546,14 +6145,30 @@
       <c r="C76" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="D76" s="1">
+        <v>26</v>
+      </c>
+      <c r="E76" s="1">
+        <v>26</v>
+      </c>
+      <c r="F76" s="1">
+        <v>26</v>
+      </c>
+      <c r="G76" s="1">
+        <v>26</v>
+      </c>
+      <c r="H76" s="1">
+        <v>26</v>
+      </c>
+      <c r="I76" s="1">
+        <v>26</v>
+      </c>
+      <c r="J76" s="1">
+        <v>26</v>
+      </c>
+      <c r="K76" s="1">
+        <v>26</v>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4578,14 +6193,30 @@
       <c r="C77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="D77" s="1">
+        <v>27</v>
+      </c>
+      <c r="E77" s="1">
+        <v>27</v>
+      </c>
+      <c r="F77" s="1">
+        <v>27</v>
+      </c>
+      <c r="G77" s="1">
+        <v>27</v>
+      </c>
+      <c r="H77" s="1">
+        <v>27</v>
+      </c>
+      <c r="I77" s="1">
+        <v>27</v>
+      </c>
+      <c r="J77" s="1">
+        <v>27</v>
+      </c>
+      <c r="K77" s="1">
+        <v>27</v>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4610,14 +6241,30 @@
       <c r="C78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="D78" s="1">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1">
+        <v>28</v>
+      </c>
+      <c r="F78" s="1">
+        <v>28</v>
+      </c>
+      <c r="G78" s="1">
+        <v>28</v>
+      </c>
+      <c r="H78" s="1">
+        <v>28</v>
+      </c>
+      <c r="I78" s="1">
+        <v>28</v>
+      </c>
+      <c r="J78" s="1">
+        <v>28</v>
+      </c>
+      <c r="K78" s="1">
+        <v>28</v>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -4642,14 +6289,30 @@
       <c r="C79" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="D79" s="1">
+        <v>29</v>
+      </c>
+      <c r="E79" s="1">
+        <v>29</v>
+      </c>
+      <c r="F79" s="1">
+        <v>29</v>
+      </c>
+      <c r="G79" s="1">
+        <v>29</v>
+      </c>
+      <c r="H79" s="1">
+        <v>29</v>
+      </c>
+      <c r="I79" s="1">
+        <v>29</v>
+      </c>
+      <c r="J79" s="1">
+        <v>29</v>
+      </c>
+      <c r="K79" s="1">
+        <v>29</v>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4674,14 +6337,30 @@
       <c r="C80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="D80" s="1">
+        <v>30</v>
+      </c>
+      <c r="E80" s="1">
+        <v>30</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30</v>
+      </c>
+      <c r="G80" s="1">
+        <v>30</v>
+      </c>
+      <c r="H80" s="1">
+        <v>30</v>
+      </c>
+      <c r="I80" s="1">
+        <v>30</v>
+      </c>
+      <c r="J80" s="1">
+        <v>30</v>
+      </c>
+      <c r="K80" s="1">
+        <v>30</v>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4706,14 +6385,30 @@
       <c r="C81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="D81" s="1">
+        <v>31</v>
+      </c>
+      <c r="E81" s="1">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1">
+        <v>31</v>
+      </c>
+      <c r="G81" s="1">
+        <v>31</v>
+      </c>
+      <c r="H81" s="1">
+        <v>31</v>
+      </c>
+      <c r="I81" s="1">
+        <v>31</v>
+      </c>
+      <c r="J81" s="1">
+        <v>31</v>
+      </c>
+      <c r="K81" s="1">
+        <v>31</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65969DF-CA38-7D48-A20D-3324FF496E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD23B53-EB47-884B-8344-F631017C9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="-1040" yWindow="-21100" windowWidth="36060" windowHeight="19800" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
   <dimension ref="A1:BC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2474,7 +2474,6 @@
         <v>1000</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
       <c r="O18" s="2" t="s">
         <v>46</v>
       </c>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD23B53-EB47-884B-8344-F631017C9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171CF93-1587-2B45-A008-85C2038AA162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1040" yWindow="-21100" windowWidth="36060" windowHeight="19800" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +397,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="苹方-简"/>
       <family val="2"/>
     </font>
@@ -457,29 +463,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -793,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
   <dimension ref="A1:BC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -803,40 +812,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
     </row>
     <row r="2" spans="1:55">
       <c r="A2" s="1"/>
@@ -910,11 +919,11 @@
         <v>5</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>2</v>
+      <c r="S3">
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
@@ -967,11 +976,11 @@
         <v>5</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="2">
-        <v>3</v>
-      </c>
-      <c r="T4" s="2">
-        <v>6</v>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -985,28 +994,28 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>0.5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>0.38938842346886499</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>0.23240303306998999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>0.121077935222672</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>5.4166666666666599E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="13">
         <v>1.694915E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5" s="1"/>
@@ -1022,17 +1031,17 @@
         <v>5</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>4</v>
-      </c>
-      <c r="T5" s="1">
-        <v>8</v>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>6</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="W5" s="12"/>
+      <c r="W5" s="9"/>
       <c r="X5" t="s">
         <v>72</v>
       </c>
@@ -1135,28 +1144,28 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>0.61061157653113396</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="11">
         <v>0.5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>0.31754829433454601</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>0.19900250614128601</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>0.110471929263875</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>6.6095471236230094E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="12">
         <v>0</v>
       </c>
       <c r="L6" s="1"/>
@@ -1173,13 +1182,13 @@
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>5</v>
-      </c>
-      <c r="T6" s="2">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8</v>
       </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="10" t="s">
         <v>102</v>
       </c>
       <c r="W6" t="s">
@@ -1287,28 +1296,28 @@
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="12">
         <v>0.76759696693000901</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <v>0.68246330094385499</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>0.5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <v>0.34141425942693499</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="12">
         <v>0.208795117211068</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <v>0.13136309825807499</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="12">
         <v>0.110878661087866</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="14">
         <v>0</v>
       </c>
       <c r="L7" s="1"/>
@@ -1325,10 +1334,10 @@
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="1"/>
@@ -1437,28 +1446,28 @@
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="14">
         <v>0.87892206477732704</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="14">
         <v>0.80099749385871299</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="11">
         <v>0.65858574057306396</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="11">
         <v>0.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="14">
         <v>0.344536205929314</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="14">
         <v>0.23573049055241099</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="14">
         <v>0.18038875820230199</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="14">
         <v>0.13207547169811301</v>
       </c>
       <c r="L8" s="1"/>
@@ -1474,8 +1483,12 @@
         <v>7</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="2">
+        <v>12</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
@@ -1583,28 +1596,28 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="14">
         <v>0.94583333333333297</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="14">
         <v>0.88952807073612405</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="14">
         <v>0.79121123397120297</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>0.65546918827946299</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="11">
         <v>0.5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="14">
         <v>0.377998789108143</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="14">
         <v>0.28011737216758098</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="14">
         <v>0.21099960901863599</v>
       </c>
       <c r="L9" s="1"/>
@@ -1633,28 +1646,28 @@
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="14">
         <v>0.98305084745762705</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="14">
         <v>0.93390452876376895</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="14">
         <v>0.86863690174192398</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="14">
         <v>0.76426950944758798</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="11">
         <v>0.622001210891856</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="11">
         <v>0.50000215074114496</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="14">
         <v>0.38515353228381599</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="14">
         <v>0.28977450007091099</v>
       </c>
       <c r="L10" s="1"/>
@@ -1683,28 +1696,28 @@
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="14">
         <v>0.88912133891213296</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="14">
         <v>0.81961124179769695</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="14">
         <v>0.71988262783241797</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="11">
         <v>0.61484646771618301</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="11">
         <v>0.5</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="14">
         <v>0.40629673356946</v>
       </c>
       <c r="L11" s="1"/>
@@ -1827,28 +1840,28 @@
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="14">
         <v>0.70833333333333304</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="14">
         <v>0.86792452830188604</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="14">
         <v>0.78900039098136299</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="14">
         <v>0.71022549992908801</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="11">
         <v>0.59370326643053895</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="11">
         <v>0.5</v>
       </c>
       <c r="L12" s="1"/>
@@ -2096,19 +2109,19 @@
     <row r="14" spans="1:55">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171CF93-1587-2B45-A008-85C2038AA162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D847B47-63B1-564C-B5A1-ED41F36DD120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1040" yWindow="-21100" windowWidth="36060" windowHeight="19800" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
   <dimension ref="A1:BC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intelheartprime/Gamedev_Tools/Kingdom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB87BE-4C4D-124A-9C60-EC826266C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FBA36-4182-5B4E-AC89-7592F065719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="-21100" windowWidth="34240" windowHeight="19480" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="37760" windowHeight="20560" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="101">
   <si>
     <t>BAT3</t>
   </si>
@@ -237,19 +237,7 @@
     <t>任务系统</t>
   </si>
   <si>
-    <t>任务1</t>
-  </si>
-  <si>
-    <t>任务2</t>
-  </si>
-  <si>
-    <t>任务3</t>
-  </si>
-  <si>
     <t>在不同阶段下给玩家提供的每日期望</t>
-  </si>
-  <si>
-    <t>奖励-点数</t>
   </si>
   <si>
     <t>活跃条件-局数</t>
@@ -280,24 +268,6 @@
   </si>
   <si>
     <t>需要统计线上有多少流失型玩家 与 多少坚持型玩家</t>
-  </si>
-  <si>
-    <t>奖励-双倍卡</t>
-  </si>
-  <si>
-    <t>奖励-点数减免BUFF</t>
-  </si>
-  <si>
-    <t>奖励-点数盾</t>
-  </si>
-  <si>
-    <t>点数盾上限</t>
-  </si>
-  <si>
-    <t>持续时间（天）</t>
-  </si>
-  <si>
-    <t>buff减免额度</t>
   </si>
   <si>
     <t>查一下多少玩家能在一个月之内进行BAT的升级，看是否需要添加球杆技能的成长机制</t>
@@ -336,16 +306,10 @@
     <t>无任务无连胜的变化</t>
   </si>
   <si>
-    <t>每第一次升段之后赠送盾*1</t>
-  </si>
-  <si>
     <t>目前只配纯活跃向的任务</t>
   </si>
   <si>
     <t>活跃条件-数据</t>
-  </si>
-  <si>
-    <t>输了不扣</t>
   </si>
   <si>
     <t>任务3 「buff」</t>
@@ -623,9 +587,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -648,10 +609,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -963,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
-  <dimension ref="A1:BH998"/>
+  <dimension ref="A1:BG998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="88" workbookViewId="0">
-      <selection activeCell="U97" sqref="U97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -974,7 +938,7 @@
     <col min="26" max="26" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:59">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1144,55 +1108,51 @@
         <v>56</v>
       </c>
       <c r="BE1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BF1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG1">
-        <v>59</v>
-      </c>
-      <c r="BH1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
-      <c r="Z3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-    </row>
-    <row r="4" spans="1:60">
+    <row r="3" spans="1:59">
+      <c r="Z3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+    </row>
+    <row r="4" spans="1:59">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1213,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>18</v>
@@ -1240,14 +1200,14 @@
         <v>66</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1290,7 +1250,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:59">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -1350,7 +1310,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:59">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1410,11 +1370,11 @@
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>11</v>
@@ -1506,11 +1466,8 @@
       <c r="BD7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BE7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60">
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" s="1"/>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1567,109 +1524,106 @@
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AA8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2</v>
       </c>
       <c r="AC8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>2</v>
       </c>
       <c r="AE8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>2</v>
       </c>
       <c r="AG8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>2</v>
       </c>
       <c r="AI8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>2</v>
       </c>
       <c r="AK8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>2</v>
       </c>
       <c r="AM8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>2</v>
       </c>
       <c r="AO8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>2</v>
       </c>
       <c r="AQ8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>2</v>
       </c>
       <c r="AS8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AT8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>2</v>
       </c>
       <c r="AU8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AX8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AZ8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>2</v>
       </c>
       <c r="BA8" s="2">
-        <v>3</v>
-      </c>
-      <c r="BB8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>2</v>
       </c>
       <c r="BC8" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD8">
-        <v>3</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" s="1"/>
       <c r="C9" s="5" t="s">
         <v>0</v>
@@ -1727,106 +1681,103 @@
       <c r="W9" s="2"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AA9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>5</v>
       </c>
       <c r="AC9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>5</v>
       </c>
       <c r="AE9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>5</v>
       </c>
       <c r="AG9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>5</v>
       </c>
       <c r="AI9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>5</v>
       </c>
       <c r="AK9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>5</v>
       </c>
       <c r="AM9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>5</v>
       </c>
       <c r="AO9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>5</v>
       </c>
       <c r="AQ9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>5</v>
       </c>
       <c r="AS9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AT9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>5</v>
       </c>
       <c r="AU9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>5</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AX9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>5</v>
       </c>
       <c r="AY9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AZ9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>5</v>
       </c>
       <c r="BA9" s="2">
-        <v>3</v>
-      </c>
-      <c r="BB9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>5</v>
       </c>
       <c r="BC9" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD9">
-        <v>3</v>
-      </c>
-      <c r="BE9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60">
+        <v>5</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1"/>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -1884,106 +1835,103 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>6</v>
       </c>
       <c r="AC10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>6</v>
       </c>
       <c r="AE10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>6</v>
       </c>
       <c r="AG10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>6</v>
       </c>
       <c r="AI10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>6</v>
       </c>
       <c r="AK10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>6</v>
       </c>
       <c r="AM10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>6</v>
       </c>
       <c r="AO10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AP10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>6</v>
       </c>
       <c r="AQ10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AR10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>6</v>
       </c>
       <c r="AS10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AT10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>6</v>
       </c>
       <c r="AU10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AV10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>6</v>
       </c>
       <c r="AW10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AX10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>6</v>
       </c>
       <c r="AY10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AZ10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>6</v>
       </c>
       <c r="BA10" s="2">
-        <v>5</v>
-      </c>
-      <c r="BB10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>6</v>
       </c>
       <c r="BC10" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD10">
-        <v>5</v>
-      </c>
-      <c r="BE10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60">
+        <v>6</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11" s="1"/>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -2040,7 +1988,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:59">
       <c r="A12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -2097,7 +2045,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:59">
       <c r="A13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -2151,104 +2099,38 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+    </row>
+    <row r="14" spans="1:59">
       <c r="A14" s="1"/>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -2302,104 +2184,39 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB14">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD14">
-        <v>3</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF14">
-        <v>3</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH14">
-        <v>3</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ14">
-        <v>3</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL14">
-        <v>3</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN14">
-        <v>3</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AQ14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR14">
-        <v>3</v>
-      </c>
-      <c r="AS14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AT14">
-        <v>3</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV14">
-        <v>3</v>
-      </c>
-      <c r="AW14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AX14">
-        <v>3</v>
-      </c>
-      <c r="AY14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AZ14">
-        <v>3</v>
-      </c>
-      <c r="BA14" s="2">
-        <v>3</v>
-      </c>
-      <c r="BB14">
-        <v>3</v>
-      </c>
-      <c r="BC14" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD14">
-        <v>3</v>
-      </c>
-      <c r="BE14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60">
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+    </row>
+    <row r="15" spans="1:59">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2436,114 +2253,49 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB15">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD15">
-        <v>3</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF15">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH15">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AJ15">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL15">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN15">
-        <v>3</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP15">
-        <v>3</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR15">
-        <v>3</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AT15">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV15">
-        <v>3</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AX15">
-        <v>3</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AZ15">
-        <v>3</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>3</v>
-      </c>
-      <c r="BB15">
-        <v>3</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD15">
-        <v>3</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="1:59">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2574,104 +2326,39 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB16">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD16">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF16">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH16">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ16">
-        <v>5</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL16">
-        <v>5</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN16">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AP16">
-        <v>5</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AR16">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AT16">
-        <v>5</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AV16">
-        <v>5</v>
-      </c>
-      <c r="AW16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AX16">
-        <v>5</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AZ16">
-        <v>5</v>
-      </c>
-      <c r="BA16" s="2">
-        <v>5</v>
-      </c>
-      <c r="BB16">
-        <v>5</v>
-      </c>
-      <c r="BC16" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD16">
-        <v>5</v>
-      </c>
-      <c r="BE16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57">
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+    </row>
+    <row r="17" spans="1:56">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2712,7 +2399,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:56">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2754,7 +2441,7 @@
       <c r="X18" s="1"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:56">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -2809,107 +2496,8 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57">
+    </row>
+    <row r="20" spans="1:56">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>1</v>
@@ -2963,105 +2551,8 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AJ20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AK20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AL20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AR20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AS20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AT20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AU20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AW20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AX20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AY20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AZ20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BA20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BB20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BC20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BD20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BE20" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57">
+    </row>
+    <row r="21" spans="1:56">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>2</v>
@@ -3116,105 +2607,8 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AJ21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AL21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AR21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AS21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AT21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AU21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AW21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AX21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AY21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AZ21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BA21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BB21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BC21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BD21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BE21" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
+    </row>
+    <row r="22" spans="1:56">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>3</v>
@@ -3269,105 +2663,8 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AP22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AU22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AW22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BD22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57">
+    </row>
+    <row r="23" spans="1:56">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>4</v>
@@ -3427,7 +2724,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:56">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>5</v>
@@ -3483,15 +2780,11 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="3"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:56">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>6</v>
@@ -3546,107 +2839,40 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:57">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+    </row>
+    <row r="26" spans="1:56">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>7</v>
@@ -3702,9 +2928,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AE26" s="2"/>
@@ -3720,9 +2944,8 @@
       <c r="AY26" s="2"/>
       <c r="BA26" s="2"/>
       <c r="BC26" s="2"/>
-      <c r="BE26" s="2"/>
-    </row>
-    <row r="27" spans="1:57">
+    </row>
+    <row r="27" spans="1:56">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>8</v>
@@ -3778,9 +3001,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AE27" s="2"/>
@@ -3796,9 +3017,8 @@
       <c r="AY27" s="2"/>
       <c r="BA27" s="2"/>
       <c r="BC27" s="2"/>
-      <c r="BE27" s="2"/>
-    </row>
-    <row r="28" spans="1:57">
+    </row>
+    <row r="28" spans="1:56">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>9</v>
@@ -3854,104 +3074,39 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AJ28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AV28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AW28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AX28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AY28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AZ28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BA28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BC28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BD28" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BE28" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57">
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+    </row>
+    <row r="29" spans="1:56">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>10</v>
@@ -4009,7 +3164,7 @@
       <c r="Y29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:56">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>11</v>
@@ -4068,7 +3223,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:56">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>12</v>
@@ -4123,17 +3278,11 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Z31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:57">
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="2"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:56">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>13</v>
@@ -4189,104 +3338,39 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:57">
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+    </row>
+    <row r="33" spans="1:56">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>14</v>
@@ -4342,104 +3426,39 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AG33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AI33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AK33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AL33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AU33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AW33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AX33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AY33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AZ33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BA33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BB33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BC33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BD33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BE33" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57">
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+    </row>
+    <row r="34" spans="1:56">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>15</v>
@@ -4493,104 +3512,39 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AE34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AF34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AG34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AI34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AJ34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AK34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AL34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AO34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AR34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AU34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AV34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AW34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AX34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BA34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BB34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BD34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BE34" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57">
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+    </row>
+    <row r="35" spans="1:56">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
         <v>16</v>
@@ -4635,104 +3589,39 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AF35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AG35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AI35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AJ35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AK35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AL35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AR35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AT35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AU35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AV35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AW35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AX35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BA35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BB35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BD35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BE35" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:57">
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+    </row>
+    <row r="36" spans="1:56">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>17</v>
@@ -4780,7 +3669,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:56">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>18</v>
@@ -4828,7 +3717,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:56">
       <c r="A38" s="1"/>
       <c r="B38" s="2">
         <v>19</v>
@@ -4877,7 +3766,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:56">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
         <v>20</v>
@@ -4926,7 +3815,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:56">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
         <v>21</v>
@@ -4975,7 +3864,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:57">
+    <row r="41" spans="1:56">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>22</v>
@@ -5024,7 +3913,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:57">
+    <row r="42" spans="1:56">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
         <v>23</v>
@@ -5073,7 +3962,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:57">
+    <row r="43" spans="1:56">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>24</v>
@@ -5123,7 +4012,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:57">
+    <row r="44" spans="1:56">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
         <v>25</v>
@@ -5173,7 +4062,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:57">
+    <row r="45" spans="1:56">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>26</v>
@@ -5223,7 +4112,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:57">
+    <row r="46" spans="1:56">
       <c r="A46" s="1"/>
       <c r="B46" s="2">
         <v>27</v>
@@ -5273,7 +4162,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:57">
+    <row r="47" spans="1:56">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>28</v>
@@ -5325,7 +4214,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:57">
+    <row r="48" spans="1:56">
       <c r="A48" s="1"/>
       <c r="B48" s="2">
         <v>29</v>
@@ -6321,7 +5210,7 @@
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -6373,7 +5262,7 @@
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -6425,7 +5314,7 @@
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -7123,11 +6012,11 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="16" customFormat="1">
+    <row r="85" spans="1:28" s="15" customFormat="1">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="15" t="s">
-        <v>110</v>
+      <c r="C85" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -7186,10 +6075,10 @@
     </row>
     <row r="87" spans="1:28" ht="20" thickBot="1">
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>7</v>
@@ -7216,10 +6105,10 @@
         <v>5</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>7</v>
@@ -7283,24 +6172,24 @@
       <c r="O88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P88" s="32">
+      <c r="P88" s="31">
         <v>0.4</v>
       </c>
-      <c r="Q88" s="33">
+      <c r="Q88" s="32">
         <v>0.1</v>
       </c>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="33">
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+      <c r="T88" s="32">
         <v>0.1</v>
       </c>
-      <c r="U88" s="35">
+      <c r="U88" s="34">
         <v>0.4</v>
       </c>
-      <c r="V88" s="33">
+      <c r="V88" s="32">
         <v>0.1</v>
       </c>
-      <c r="W88" s="36"/>
+      <c r="W88" s="35"/>
     </row>
     <row r="89" spans="1:28">
       <c r="B89" s="2">
@@ -7347,24 +6236,24 @@
       <c r="O89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P89" s="22">
+      <c r="P89" s="21">
         <v>0.1</v>
       </c>
-      <c r="Q89" s="17">
+      <c r="Q89" s="16">
         <v>0.05</v>
       </c>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="17">
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="16">
         <v>0.05</v>
       </c>
-      <c r="U89" s="18">
+      <c r="U89" s="17">
         <v>0.1</v>
       </c>
-      <c r="V89" s="17">
+      <c r="V89" s="16">
         <v>0.05</v>
       </c>
-      <c r="W89" s="21"/>
+      <c r="W89" s="20"/>
     </row>
     <row r="90" spans="1:28">
       <c r="B90" s="2">
@@ -7411,14 +6300,14 @@
       <c r="O90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="20"/>
-      <c r="V90" s="20"/>
-      <c r="W90" s="21"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="20"/>
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="1"/>
@@ -7468,14 +6357,14 @@
       <c r="O91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
-      <c r="V91" s="20"/>
-      <c r="W91" s="21"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="20"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
@@ -7530,14 +6419,14 @@
       <c r="O92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
-      <c r="V92" s="20"/>
-      <c r="W92" s="21"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="20"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
@@ -7592,14 +6481,14 @@
       <c r="O93" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P93" s="23"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="20"/>
-      <c r="W93" s="21"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="20"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
@@ -7654,14 +6543,14 @@
       <c r="O94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
-      <c r="V94" s="20"/>
-      <c r="W94" s="21"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="20"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
@@ -7716,14 +6605,14 @@
       <c r="O95" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P95" s="25"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
-      <c r="T95" s="24"/>
-      <c r="U95" s="24"/>
-      <c r="V95" s="24"/>
-      <c r="W95" s="26"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="23"/>
+      <c r="U95" s="23"/>
+      <c r="V95" s="23"/>
+      <c r="W95" s="25"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
@@ -7778,14 +6667,14 @@
       <c r="O96" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="20"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
-      <c r="V96" s="20"/>
-      <c r="W96" s="21"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="20"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
@@ -7840,20 +6729,20 @@
       <c r="O97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="17">
+      <c r="P97" s="22"/>
+      <c r="Q97" s="16">
         <v>0.05</v>
       </c>
-      <c r="R97" s="18">
+      <c r="R97" s="17">
         <v>0.1</v>
       </c>
-      <c r="S97" s="17">
+      <c r="S97" s="16">
         <v>0.05</v>
       </c>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20"/>
-      <c r="V97" s="20"/>
-      <c r="W97" s="21"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="20"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
@@ -7908,20 +6797,20 @@
       <c r="O98" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="18">
+      <c r="P98" s="22"/>
+      <c r="Q98" s="17">
         <v>0.1</v>
       </c>
-      <c r="R98" s="19">
+      <c r="R98" s="18">
         <v>0.4</v>
       </c>
-      <c r="S98" s="18">
+      <c r="S98" s="17">
         <v>0.1</v>
       </c>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="20"/>
-      <c r="W98" s="21"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="20"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
@@ -7976,20 +6865,20 @@
       <c r="O99" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="17">
+      <c r="P99" s="22"/>
+      <c r="Q99" s="16">
         <v>0.05</v>
       </c>
-      <c r="R99" s="18">
+      <c r="R99" s="17">
         <v>0.1</v>
       </c>
-      <c r="S99" s="17">
+      <c r="S99" s="16">
         <v>0.05</v>
       </c>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="21"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="20"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
@@ -8044,16 +6933,16 @@
       <c r="O100" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20"/>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="17">
+      <c r="P100" s="22"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="16">
         <v>0.05</v>
       </c>
-      <c r="W100" s="27">
+      <c r="W100" s="26">
         <v>0.1</v>
       </c>
       <c r="X100" s="1"/>
@@ -8110,16 +6999,16 @@
       <c r="O101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P101" s="23"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="20"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
-      <c r="V101" s="18">
+      <c r="P101" s="22"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="17">
         <v>0.1</v>
       </c>
-      <c r="W101" s="28">
+      <c r="W101" s="27">
         <v>0.4</v>
       </c>
       <c r="X101" s="1"/>
@@ -8176,16 +7065,16 @@
       <c r="O102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="17">
+      <c r="P102" s="22"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="16">
         <v>0.05</v>
       </c>
-      <c r="W102" s="27">
+      <c r="W102" s="26">
         <v>0.1</v>
       </c>
       <c r="X102" s="1"/>
@@ -8242,14 +7131,14 @@
       <c r="O103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="20"/>
-      <c r="W103" s="21"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="20"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
@@ -8304,14 +7193,14 @@
       <c r="O104" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="20"/>
-      <c r="W104" s="21"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="20"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
@@ -8366,14 +7255,14 @@
       <c r="O105" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P105" s="23"/>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="20"/>
-      <c r="S105" s="20"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
-      <c r="V105" s="20"/>
-      <c r="W105" s="21"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="20"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
@@ -8428,14 +7317,14 @@
       <c r="O106" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P106" s="23"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20"/>
-      <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
-      <c r="V106" s="20"/>
-      <c r="W106" s="21"/>
+      <c r="P106" s="22"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="20"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
@@ -8490,14 +7379,14 @@
       <c r="O107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P107" s="23"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
-      <c r="V107" s="20"/>
-      <c r="W107" s="21"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="20"/>
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
@@ -8552,14 +7441,14 @@
       <c r="O108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="20"/>
-      <c r="S108" s="20"/>
-      <c r="T108" s="20"/>
-      <c r="U108" s="20"/>
-      <c r="V108" s="20"/>
-      <c r="W108" s="21"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="20"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
@@ -8614,14 +7503,14 @@
       <c r="O109" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P109" s="23"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20"/>
-      <c r="S109" s="20"/>
-      <c r="T109" s="20"/>
-      <c r="U109" s="20"/>
-      <c r="V109" s="20"/>
-      <c r="W109" s="21"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="20"/>
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
@@ -8676,14 +7565,14 @@
       <c r="O110" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="20"/>
-      <c r="W110" s="21"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="20"/>
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
@@ -8738,14 +7627,14 @@
       <c r="O111" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="20"/>
-      <c r="S111" s="20"/>
-      <c r="T111" s="20"/>
-      <c r="U111" s="20"/>
-      <c r="V111" s="20"/>
-      <c r="W111" s="21"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="20"/>
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
@@ -8800,14 +7689,14 @@
       <c r="O112" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P112" s="23"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="20"/>
-      <c r="S112" s="20"/>
-      <c r="T112" s="20"/>
-      <c r="U112" s="20"/>
-      <c r="V112" s="20"/>
-      <c r="W112" s="21"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="19"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="20"/>
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
@@ -8862,14 +7751,14 @@
       <c r="O113" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P113" s="23"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20"/>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="20"/>
-      <c r="W113" s="21"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
+      <c r="V113" s="19"/>
+      <c r="W113" s="20"/>
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
@@ -8924,14 +7813,14 @@
       <c r="O114" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="20"/>
-      <c r="S114" s="20"/>
-      <c r="T114" s="20"/>
-      <c r="U114" s="20"/>
-      <c r="V114" s="20"/>
-      <c r="W114" s="21"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="20"/>
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
@@ -8986,14 +7875,14 @@
       <c r="O115" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P115" s="23"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="20"/>
-      <c r="T115" s="20"/>
-      <c r="U115" s="20"/>
-      <c r="V115" s="20"/>
-      <c r="W115" s="21"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="20"/>
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
@@ -9048,14 +7937,14 @@
       <c r="O116" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P116" s="23"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
-      <c r="V116" s="20"/>
-      <c r="W116" s="21"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="20"/>
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
@@ -9110,14 +7999,14 @@
       <c r="O117" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P117" s="29"/>
-      <c r="Q117" s="30"/>
-      <c r="R117" s="30"/>
-      <c r="S117" s="30"/>
-      <c r="T117" s="30"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="31"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29"/>
+      <c r="S117" s="29"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+      <c r="V117" s="29"/>
+      <c r="W117" s="30"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
@@ -9247,10 +8136,10 @@
     <row r="123" spans="1:28">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -9259,7 +8148,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -9283,38 +8172,38 @@
     <row r="124" spans="1:28">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -9340,7 +8229,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -9372,7 +8261,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -35557,7 +34446,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Z3:BE3"/>
+    <mergeCell ref="Z3:BD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FBA36-4182-5B4E-AC89-7592F065719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B0DF3-56F1-B446-9213-EAA4155F1476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="37760" windowHeight="20560" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
   <dimension ref="A1:BG998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="G78" workbookViewId="0">
+      <selection activeCell="Q95" sqref="Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -6049,6 +6049,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -8319,7 +8320,10 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="1">
+        <f>ROUND(D88/8,0)</f>
+        <v>0</v>
+      </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -8349,7 +8353,10 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1">
+        <f t="shared" ref="D129:D157" si="17">ROUND(D89/8,0)</f>
+        <v>1</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -8379,7 +8386,10 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -8409,7 +8419,10 @@
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -8439,7 +8452,10 @@
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -8469,7 +8485,10 @@
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -8499,7 +8518,10 @@
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -8529,7 +8551,10 @@
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="1">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -8559,7 +8584,10 @@
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -8589,7 +8617,10 @@
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -8619,7 +8650,10 @@
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -8649,7 +8683,10 @@
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -8679,7 +8716,10 @@
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -8709,7 +8749,10 @@
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -8739,7 +8782,10 @@
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -8769,7 +8815,10 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -8799,7 +8848,10 @@
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -8829,7 +8881,10 @@
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -8859,7 +8914,10 @@
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -8889,7 +8947,10 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="1">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -8919,7 +8980,10 @@
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -8949,7 +9013,10 @@
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -8979,7 +9046,10 @@
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -9009,7 +9079,10 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -9039,7 +9112,10 @@
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -9069,7 +9145,10 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -9099,7 +9178,10 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -9129,7 +9211,10 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -9159,7 +9244,10 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -9189,7 +9277,10 @@
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B0DF3-56F1-B446-9213-EAA4155F1476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D687B3-3E00-474E-BE08-32B639CF25FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="-580" yWindow="-20780" windowWidth="36120" windowHeight="20080" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1008FC5-4C04-EE4B-A35B-C84E380B5767}">
   <dimension ref="A1:BG998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G78" workbookViewId="0">
-      <selection activeCell="Q95" sqref="Q95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1219,7 +1219,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
       <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1284,9 @@
       <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
       <c r="O6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1348,9 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1498,7 +1504,9 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1662,9 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1818,9 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>6</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1962,7 +1974,9 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>7</v>
+      </c>
       <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2019,7 +2033,9 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
@@ -2076,7 +2092,9 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>9</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>34</v>
       </c>
@@ -2161,7 +2179,9 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>10</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2230,7 +2250,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>11</v>
+      </c>
       <c r="O15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2303,7 +2325,9 @@
       <c r="K16" s="6"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>12</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2372,7 +2396,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>13</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2417,7 +2443,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>14</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +2502,9 @@
         <v>5</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>15</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2530,6 +2560,9 @@
         <v>1000</v>
       </c>
       <c r="L20" s="1"/>
+      <c r="N20" s="1">
+        <v>16</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2585,7 +2618,9 @@
         <v>900</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>17</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2676,9 @@
         <v>800</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>18</v>
+      </c>
       <c r="O22" s="2" t="s">
         <v>49</v>
       </c>
@@ -2697,7 +2734,9 @@
         <v>700</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>19</v>
+      </c>
       <c r="O23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2757,7 +2796,9 @@
         <v>600</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>20</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>52</v>
       </c>
@@ -2817,7 +2858,9 @@
         <v>500</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>21</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>53</v>
       </c>
@@ -2905,7 +2948,9 @@
         <v>400</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>22</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2978,7 +3023,9 @@
         <v>300</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>23</v>
+      </c>
       <c r="O27" s="2" t="s">
         <v>55</v>
       </c>
@@ -3051,7 +3098,9 @@
         <v>200</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>24</v>
+      </c>
       <c r="O28" s="2" t="s">
         <v>56</v>
       </c>
@@ -3139,7 +3188,9 @@
         <v>100</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>25</v>
+      </c>
       <c r="O29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3197,7 +3248,9 @@
         <v>100</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>26</v>
+      </c>
       <c r="O30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3256,7 +3309,9 @@
         <v>100</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>27</v>
+      </c>
       <c r="O31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3315,7 +3370,9 @@
         <v>100</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>28</v>
+      </c>
       <c r="O32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3403,7 +3460,9 @@
         <v>100</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>29</v>
+      </c>
       <c r="O33" s="2" t="s">
         <v>61</v>
       </c>
@@ -3491,7 +3550,9 @@
         <v>100</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>30</v>
+      </c>
       <c r="O34" s="2" t="s">
         <v>62</v>
       </c>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D687B3-3E00-474E-BE08-32B639CF25FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F8776E-9903-C84F-B708-722FFF58F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-580" yWindow="-20780" windowWidth="36120" windowHeight="20080" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:BG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2536,28 +2536,28 @@
         <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="1">
@@ -2594,28 +2594,28 @@
         <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="N21" s="1">
@@ -2652,28 +2652,28 @@
         <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="1">
@@ -2710,28 +2710,28 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1">
@@ -2772,28 +2772,28 @@
         <v>15</v>
       </c>
       <c r="D24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="N24" s="1">
@@ -2834,28 +2834,28 @@
         <v>29</v>
       </c>
       <c r="D25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="N25" s="1">
@@ -2924,28 +2924,28 @@
         <v>31</v>
       </c>
       <c r="D26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="N26" s="1">
@@ -2999,28 +2999,28 @@
         <v>33</v>
       </c>
       <c r="D27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="N27" s="1">
@@ -3074,28 +3074,28 @@
         <v>34</v>
       </c>
       <c r="D28" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="N28" s="1">
@@ -3164,28 +3164,28 @@
         <v>35</v>
       </c>
       <c r="D29" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="N29" s="1">
@@ -3224,28 +3224,28 @@
         <v>37</v>
       </c>
       <c r="D30" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="N30" s="1">
@@ -3285,28 +3285,28 @@
         <v>39</v>
       </c>
       <c r="D31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="N31" s="1">
@@ -3346,28 +3346,28 @@
         <v>41</v>
       </c>
       <c r="D32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="N32" s="1">
@@ -3436,28 +3436,28 @@
         <v>42</v>
       </c>
       <c r="D33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="N33" s="1">
@@ -3526,28 +3526,28 @@
         <v>44</v>
       </c>
       <c r="D34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="N34" s="1">
@@ -3614,28 +3614,28 @@
         <v>46</v>
       </c>
       <c r="D35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="N35" s="1"/>
@@ -3691,28 +3691,28 @@
         <v>47</v>
       </c>
       <c r="D36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="N36" s="1"/>
@@ -3739,28 +3739,28 @@
         <v>49</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="N37" s="1"/>
@@ -3787,28 +3787,28 @@
         <v>51</v>
       </c>
       <c r="D38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="N38" s="1"/>
@@ -3836,28 +3836,28 @@
         <v>52</v>
       </c>
       <c r="D39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="N39" s="1"/>
@@ -3885,28 +3885,28 @@
         <v>53</v>
       </c>
       <c r="D40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="N40" s="1"/>
@@ -3934,28 +3934,28 @@
         <v>54</v>
       </c>
       <c r="D41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="N41" s="1"/>
@@ -3983,28 +3983,28 @@
         <v>55</v>
       </c>
       <c r="D42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="N42" s="1"/>
@@ -4032,28 +4032,28 @@
         <v>56</v>
       </c>
       <c r="D43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4082,28 +4082,28 @@
         <v>57</v>
       </c>
       <c r="D44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -4132,28 +4132,28 @@
         <v>58</v>
       </c>
       <c r="D45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -4182,28 +4182,28 @@
         <v>59</v>
       </c>
       <c r="D46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4232,28 +4232,28 @@
         <v>60</v>
       </c>
       <c r="D47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="2" t="s">
@@ -4284,28 +4284,28 @@
         <v>61</v>
       </c>
       <c r="D48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="2" t="s">
@@ -4336,28 +4336,28 @@
         <v>62</v>
       </c>
       <c r="D49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4521,7 +4521,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" ht="20" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
         <v>1</v>
@@ -4530,28 +4530,28 @@
         <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="2" t="s">
@@ -4582,28 +4582,28 @@
         <v>12</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4632,28 +4632,28 @@
         <v>13</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4734,28 +4734,28 @@
         <v>15</v>
       </c>
       <c r="D58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="2" t="s">
@@ -4786,28 +4786,28 @@
         <v>29</v>
       </c>
       <c r="D59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K59" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="2" t="s">
@@ -4838,28 +4838,28 @@
         <v>31</v>
       </c>
       <c r="D60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4888,28 +4888,28 @@
         <v>33</v>
       </c>
       <c r="D61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K61" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="2" t="s">
@@ -4940,28 +4940,28 @@
         <v>34</v>
       </c>
       <c r="D62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K62" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="2" t="s">
@@ -4992,28 +4992,28 @@
         <v>35</v>
       </c>
       <c r="D63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K63" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5042,28 +5042,28 @@
         <v>37</v>
       </c>
       <c r="D64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="2" t="s">
@@ -5094,28 +5094,28 @@
         <v>39</v>
       </c>
       <c r="D65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="2" t="s">
@@ -5146,28 +5146,28 @@
         <v>41</v>
       </c>
       <c r="D66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5196,28 +5196,28 @@
         <v>42</v>
       </c>
       <c r="D67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -5246,28 +5246,28 @@
         <v>44</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K68" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="2" t="s">
@@ -5298,28 +5298,28 @@
         <v>46</v>
       </c>
       <c r="D69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K69" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="2" t="s">
@@ -5350,28 +5350,28 @@
         <v>47</v>
       </c>
       <c r="D70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K70" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
@@ -5402,28 +5402,28 @@
         <v>49</v>
       </c>
       <c r="D71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K71" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -5452,28 +5452,28 @@
         <v>51</v>
       </c>
       <c r="D72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -5502,28 +5502,28 @@
         <v>52</v>
       </c>
       <c r="D73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K73" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -5552,28 +5552,28 @@
         <v>53</v>
       </c>
       <c r="D74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K74" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -5602,28 +5602,28 @@
         <v>54</v>
       </c>
       <c r="D75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K75" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -5652,28 +5652,28 @@
         <v>55</v>
       </c>
       <c r="D76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K76" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -5702,28 +5702,28 @@
         <v>56</v>
       </c>
       <c r="D77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K77" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -5752,28 +5752,28 @@
         <v>57</v>
       </c>
       <c r="D78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K78" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -5802,28 +5802,28 @@
         <v>58</v>
       </c>
       <c r="D79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="K79" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -5852,28 +5852,28 @@
         <v>59</v>
       </c>
       <c r="D80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K80" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -5902,28 +5902,28 @@
         <v>60</v>
       </c>
       <c r="D81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="K81" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -5952,28 +5952,28 @@
         <v>61</v>
       </c>
       <c r="D82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K82" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -6002,28 +6002,28 @@
         <v>62</v>
       </c>
       <c r="D83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K83" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4D6E1-5A55-B646-91DB-79ACCF37FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736FB1D0-A251-8648-8A09-87560B888CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-580" yWindow="-20780" windowWidth="36120" windowHeight="20080" activeTab="1" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
@@ -34621,7 +34621,7 @@
   <dimension ref="A1:BG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -35013,7 +35013,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -35077,7 +35077,7 @@
         <v>3</v>
       </c>
       <c r="V7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="7" t="s">
@@ -35233,7 +35233,7 @@
         <v>4</v>
       </c>
       <c r="V8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="9" t="s">
@@ -35391,7 +35391,7 @@
         <v>5</v>
       </c>
       <c r="V9" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1"/>
@@ -35543,12 +35543,8 @@
         <v>7</v>
       </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="1">
-        <v>6</v>
-      </c>
-      <c r="V10" s="2">
-        <v>12</v>
-      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736FB1D0-A251-8648-8A09-87560B888CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA799D-F809-A34D-B053-E52A19FBF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-580" yWindow="-20780" windowWidth="36120" windowHeight="20080" activeTab="1" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
   <sheets>
     <sheet name="群体智慧版" sheetId="1" r:id="rId1"/>
@@ -34621,7 +34621,7 @@
   <dimension ref="A1:BG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -35402,94 +35402,94 @@
         <v>93</v>
       </c>
       <c r="AA9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -35554,94 +35554,94 @@
         <v>92</v>
       </c>
       <c r="AA10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:59">

--- a/Kingdom/KingdomSimulator.xlsx
+++ b/Kingdom/KingdomSimulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA799D-F809-A34D-B053-E52A19FBF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14FD30-609A-2440-B786-796C4B5D2A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{7FFFBABC-6793-4F48-8984-0BF1F567D385}"/>
   </bookViews>
@@ -34621,7 +34621,7 @@
   <dimension ref="A1:BG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
